--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -336,6 +336,19 @@
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>房东录入费用水电煤后会变成押金</t>
+  </si>
+  <si>
+    <t>袁冰秋、田志敏</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>t'z'm</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -523,7 +536,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +657,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -773,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -798,6 +829,9 @@
     <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -816,6 +850,9 @@
     <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1253,7 +1290,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K10" sqref="K10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1693,18 +1730,40 @@
       <c r="T9" s="41"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="20">
+        <v>42665</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="20">
+        <v>42665</v>
+      </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="J10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="M10" s="29"/>
       <c r="N10" s="20"/>
       <c r="O10" s="29"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
@@ -16,7 +16,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4 新特性|Fix Bug'!$A$1:$S$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4 新特性|Fix Bug'!$A$1:$S$11</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -246,31 +246,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>退房已结账的账单不能支付</t>
-    <rPh sb="0" eb="1">
-      <t>tui'f</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jie'zhang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhang'd</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu'neng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi'fu</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>租客APP</t>
     <rPh sb="0" eb="1">
       <t>zu'k</t>
@@ -346,6 +321,39 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>t'z'm</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约租客性别选择问题修复</t>
+    <rPh sb="0" eb="1">
+      <t>bu'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xua'z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen't</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiu'f</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -536,7 +544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +683,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -804,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -832,6 +864,10 @@
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -853,6 +889,10 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1287,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T192"/>
+  <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+      <selection activeCell="C10" sqref="C10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1412,9 +1452,15 @@
       <c r="L2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="29"/>
+      <c r="M2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
@@ -1456,9 +1502,15 @@
       <c r="L3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="29"/>
+      <c r="M3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
@@ -1500,9 +1552,15 @@
       <c r="L4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="29"/>
+      <c r="M4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -1544,27 +1602,33 @@
       <c r="L5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="29"/>
+      <c r="M5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
       <c r="S5" s="38"/>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>28</v>
@@ -1578,9 +1642,9 @@
       <c r="H6" s="20">
         <v>42665</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>33</v>
@@ -1588,21 +1652,27 @@
       <c r="L6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39"/>
+      <c r="M6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>29</v>
@@ -1624,7 +1694,7 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="29" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>33</v>
@@ -1632,12 +1702,18 @@
       <c r="L7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="M7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
       <c r="S7" s="40"/>
       <c r="T7" s="41"/>
     </row>
@@ -1646,13 +1722,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>28</v>
@@ -1668,7 +1744,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>33</v>
@@ -1676,9 +1752,15 @@
       <c r="L8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="29"/>
+      <c r="M8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
@@ -1690,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>28</v>
@@ -1711,8 +1793,8 @@
         <v>42665</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="29" t="s">
-        <v>44</v>
+      <c r="J9" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>33</v>
@@ -1720,9 +1802,15 @@
       <c r="L9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="29"/>
+      <c r="M9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="33"/>
@@ -1734,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>36</v>
@@ -1754,9 +1842,9 @@
       <c r="H10" s="20">
         <v>42665</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="32" t="s">
-        <v>50</v>
+      <c r="I10" s="18"/>
+      <c r="J10" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>33</v>
@@ -1764,27 +1852,33 @@
       <c r="L10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="29"/>
+      <c r="M10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="40"/>
       <c r="T10" s="41"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="19"/>
       <c r="J11" s="32"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="18"/>
       <c r="M11" s="29"/>
       <c r="N11" s="20"/>
@@ -1795,7 +1889,7 @@
       <c r="S11" s="40"/>
       <c r="T11" s="41"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="22"/>
       <c r="C12" s="18"/>
@@ -1839,31 +1933,31 @@
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="32"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="19"/>
       <c r="L14" s="18"/>
       <c r="M14" s="29"/>
       <c r="N14" s="20"/>
       <c r="O14" s="29"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-    </row>
-    <row r="15" spans="1:20" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="39"/>
+    </row>
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -1953,13 +2047,13 @@
       <c r="A19" s="16"/>
       <c r="B19" s="22"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
       <c r="H19" s="20"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="19"/>
       <c r="L19" s="18"/>
       <c r="M19" s="29"/>
@@ -1981,7 +2075,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="32"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="19"/>
       <c r="L20" s="18"/>
       <c r="M20" s="29"/>
@@ -1995,16 +2089,16 @@
     </row>
     <row r="21" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="18"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="29"/>
       <c r="N21" s="20"/>
@@ -2150,16 +2244,16 @@
     <row r="28" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="18"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="29"/>
       <c r="N28" s="20"/>
       <c r="O28" s="29"/>
@@ -2194,17 +2288,17 @@
     <row r="30" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="20"/>
       <c r="O30" s="29"/>
       <c r="P30" s="27"/>
@@ -2248,8 +2342,8 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="20"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="29"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
@@ -2280,7 +2374,7 @@
       <c r="T33" s="39"/>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="24"/>
       <c r="C34" s="27"/>
       <c r="D34" s="18"/>
@@ -2293,12 +2387,12 @@
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="29"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
-      <c r="S34" s="38"/>
+      <c r="S34" s="36"/>
       <c r="T34" s="39"/>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -2323,8 +2417,8 @@
       <c r="S35" s="36"/>
       <c r="T35" s="39"/>
     </row>
-    <row r="36" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
       <c r="B36" s="24"/>
       <c r="C36" s="27"/>
       <c r="D36" s="18"/>
@@ -2338,12 +2432,11 @@
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="36"/>
+      <c r="O36" s="24"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="39"/>
+      <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
@@ -3358,7 +3451,7 @@
       <c r="B85" s="24"/>
       <c r="C85" s="27"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="28"/>
       <c r="G85" s="27"/>
       <c r="H85" s="28"/>
@@ -3479,11 +3572,11 @@
       <c r="R90" s="27"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
       <c r="B91" s="24"/>
       <c r="C91" s="27"/>
-      <c r="D91" s="18"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="28"/>
       <c r="G91" s="27"/>
@@ -4881,9 +4974,6 @@
       <c r="M157" s="27"/>
       <c r="N157" s="28"/>
       <c r="O157" s="24"/>
-      <c r="P157" s="27"/>
-      <c r="Q157" s="27"/>
-      <c r="R157" s="27"/>
       <c r="S157" s="24"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.15">
@@ -5392,17 +5482,6 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="28"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
       <c r="M186" s="27"/>
       <c r="N186" s="28"/>
       <c r="O186" s="24"/>
@@ -5417,7 +5496,6 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
-      <c r="M188" s="27"/>
       <c r="N188" s="28"/>
       <c r="O188" s="24"/>
       <c r="S188" s="24"/>
@@ -5430,7 +5508,6 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
-      <c r="N190" s="28"/>
       <c r="O190" s="24"/>
       <c r="S190" s="24"/>
     </row>
@@ -5439,13 +5516,8 @@
       <c r="O191" s="24"/>
       <c r="S191" s="24"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A192" s="27"/>
-      <c r="O192" s="24"/>
-      <c r="S192" s="24"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S12"/>
+  <autoFilter ref="A1:S11"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -357,6 +357,29 @@
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>配置中心——30天租金</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zu'j</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +567,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +730,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -836,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="60">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -868,6 +903,8 @@
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -893,6 +930,8 @@
     <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1330,7 +1369,7 @@
   <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:O10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1868,21 +1907,49 @@
       <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20">
+        <v>42665</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="20">
+        <v>42665</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="20">
+        <v>42667</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -380,6 +380,13 @@
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>谷丽娜</t>
+    <rPh sb="0" eb="1">
+      <t>gu'l'n</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -567,7 +574,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +749,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -871,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="62">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -905,6 +918,7 @@
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -932,6 +946,7 @@
     <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1369,7 +1384,7 @@
   <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1554,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>50</v>
@@ -1589,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>50</v>
@@ -1639,7 +1654,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>50</v>
@@ -1689,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>50</v>
@@ -1889,7 +1904,7 @@
         <v>33</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>50</v>

--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -354,29 +354,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>xiu'f</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置中心——30天租金</t>
-    <rPh sb="0" eb="1">
-      <t>pei'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong'x</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zu'j</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <rPh sb="0" eb="1">
-      <t>w'h</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1384,7 +1361,7 @@
   <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1554,7 +1531,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>50</v>
@@ -1604,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>50</v>
@@ -1654,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>50</v>
@@ -1704,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>50</v>
@@ -1904,7 +1881,7 @@
         <v>33</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="29" t="s">
         <v>50</v>
@@ -1922,49 +1899,21 @@
       <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="20">
-        <v>42665</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="20">
-        <v>42665</v>
-      </c>
+      <c r="A11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="20">
-        <v>42667</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>51</v>
-      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
